--- a/results/israel/data/tga_israel.xlsx
+++ b/results/israel/data/tga_israel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\israel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12533B10-E27E-4AFC-AB4A-3F5F517A11AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FE2469-8DBD-46B2-B6DD-E06790E29287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="321">
   <si>
     <t>Name</t>
   </si>
@@ -226,30 +226,6 @@
     <t>1.0055</t>
   </si>
   <si>
-    <t>AY-43</t>
-  </si>
-  <si>
-    <t>AY-44</t>
-  </si>
-  <si>
-    <t>1.092</t>
-  </si>
-  <si>
-    <t>AY-45</t>
-  </si>
-  <si>
-    <t>AY-46</t>
-  </si>
-  <si>
-    <t>AY-47</t>
-  </si>
-  <si>
-    <t>AY-48</t>
-  </si>
-  <si>
-    <t>AY-49</t>
-  </si>
-  <si>
     <t>AY-50</t>
   </si>
   <si>
@@ -809,78 +785,6 @@
   </si>
   <si>
     <t>1.0217</t>
-  </si>
-  <si>
-    <t>1.0286</t>
-  </si>
-  <si>
-    <t>0.9947</t>
-  </si>
-  <si>
-    <t>0.8749</t>
-  </si>
-  <si>
-    <t>1.0677</t>
-  </si>
-  <si>
-    <t>1.0215</t>
-  </si>
-  <si>
-    <t>0.9331</t>
-  </si>
-  <si>
-    <t>1.1159</t>
-  </si>
-  <si>
-    <t>1.0899</t>
-  </si>
-  <si>
-    <t>1.0213</t>
-  </si>
-  <si>
-    <t>0.9214</t>
-  </si>
-  <si>
-    <t>1.0783</t>
-  </si>
-  <si>
-    <t>1.0548</t>
-  </si>
-  <si>
-    <t>1.0141</t>
-  </si>
-  <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>1.0973</t>
-  </si>
-  <si>
-    <t>1.0809</t>
-  </si>
-  <si>
-    <t>1.0592</t>
-  </si>
-  <si>
-    <t>0.9755</t>
-  </si>
-  <si>
-    <t>1.0212</t>
-  </si>
-  <si>
-    <t>0.8848</t>
-  </si>
-  <si>
-    <t>1.2083</t>
-  </si>
-  <si>
-    <t>1.2073</t>
-  </si>
-  <si>
-    <t>1.2034</t>
-  </si>
-  <si>
-    <t>0.8457</t>
   </si>
   <si>
     <t>1.0576</t>
@@ -1925,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,16 +1853,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,16 +1876,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,16 +1899,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,16 +1922,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,13 +1948,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,16 +1968,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,16 +1991,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,16 +2014,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,16 +2037,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,16 +2060,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,16 +2083,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,16 +2106,16 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,16 +2129,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,16 +2152,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,16 +2175,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,16 +2198,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2320,13 +2224,13 @@
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,16 +2244,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,16 +2267,16 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,16 +2290,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,16 +2313,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,13 +2336,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>30</v>
@@ -2455,16 +2359,16 @@
         <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,16 +2382,16 @@
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,10 +2411,10 @@
         <v>37</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,16 +2428,16 @@
         <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,16 +2451,16 @@
         <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,16 +2474,16 @@
         <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,16 +2497,16 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,16 +2520,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,16 +2543,16 @@
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,13 +2566,13 @@
         <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>32</v>
@@ -2685,16 +2589,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>50</v>
@@ -2717,7 +2621,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,16 +2635,16 @@
         <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,13 +2661,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,13 +2681,13 @@
         <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>54</v>
@@ -2800,16 +2704,16 @@
         <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,16 +2727,16 @@
         <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,13 +2753,13 @@
         <v>59</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,16 +2773,16 @@
         <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,16 +2796,16 @@
         <v>58</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,16 +2819,16 @@
         <v>58</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,16 +2842,16 @@
         <v>58</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,16 +2865,16 @@
         <v>58</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,13 +2888,13 @@
         <v>58</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>67</v>
@@ -3007,21 +2911,21 @@
         <v>58</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1">
         <v>44535.737500000003</v>
@@ -3030,16 +2934,16 @@
         <v>58</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,21 +2957,21 @@
         <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B50" s="1">
         <v>44535.737500000003</v>
@@ -3076,16 +2980,16 @@
         <v>58</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,522 +3003,361 @@
         <v>58</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="1">
-        <v>44535.737500000003</v>
+      <c r="B52" t="s">
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="1">
-        <v>44535.737500000003</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="1">
-        <v>44535.737500000003</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="1">
-        <v>44535.737500000003</v>
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="1">
-        <v>44535.737500000003</v>
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="1">
-        <v>44535.737500000003</v>
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="1">
-        <v>44535.737500000003</v>
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>302</v>
+        <v>88</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>303</v>
+        <v>89</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
